--- a/CUMCM2022支撑材料/excel/extract/data_imput/data_1.xlsx
+++ b/CUMCM2022支撑材料/excel/extract/data_imput/data_1.xlsx
@@ -772,7 +772,7 @@
         <v>2</v>
       </c>
       <c r="D20" t="n">
-        <v>3.283521090021092</v>
+        <v>3.30031853114206</v>
       </c>
       <c r="E20" t="n">
         <v>2</v>
@@ -1129,7 +1129,7 @@
         <v>2</v>
       </c>
       <c r="D41" t="n">
-        <v>2.982260033439212</v>
+        <v>2.883025720108924</v>
       </c>
       <c r="E41" t="n">
         <v>2</v>
@@ -1265,7 +1265,7 @@
         <v>2</v>
       </c>
       <c r="D49" t="n">
-        <v>3.283521090021092</v>
+        <v>3.30031853114206</v>
       </c>
       <c r="E49" t="n">
         <v>2</v>
@@ -1435,7 +1435,7 @@
         <v>2</v>
       </c>
       <c r="D59" t="n">
-        <v>2.982260033439212</v>
+        <v>2.883025720108924</v>
       </c>
       <c r="E59" t="n">
         <v>2</v>
